--- a/Project/scrum/第五次作业.xlsx
+++ b/Project/scrum/第五次作业.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019.9-2019.12\软件工程\hope-of-the-whole-village\Project\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6D1322-D8D2-4EA6-A209-F7FDA406D91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="236">
   <si>
     <t>引用编号</t>
   </si>
@@ -916,21 +922,21 @@
   <si>
     <t>4.2.4  作为运营商，我想要APP的广告发布到QQ空间</t>
   </si>
+  <si>
+    <t>冲刺号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="180" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,159 +981,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1143,8 +1005,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,7 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,7 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,222 +1057,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1825,317 +1507,384 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.149937437055574"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="7" fillId="12" borderId="37" applyNumberFormat="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" applyNumberFormat="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="6" fillId="7" borderId="37">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="30" borderId="41" applyNumberFormat="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="41" applyNumberFormat="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="7" borderId="41">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2143,14 +1892,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,11 +1901,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2170,363 +1910,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="11">
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="DateCells" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="DayNames" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="MonthHeader" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="百分比 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="百分比 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="MonthHeader" xfId="20"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="DayNames" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="45" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
-    <cellStyle name="Normal 3" xfId="49"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="DateCells" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="常规 3" xfId="57"/>
-    <cellStyle name="货币 2" xfId="58"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="货币 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2784,1346 +2192,1345 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="91"/>
-    <col min="2" max="2" width="5.66666666666667" style="92" customWidth="1"/>
-    <col min="3" max="3" width="7.77777777777778" style="92" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="93" customWidth="1"/>
-    <col min="5" max="5" width="20" style="93" customWidth="1"/>
-    <col min="6" max="6" width="50" style="94" customWidth="1"/>
-    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" style="95" customWidth="1"/>
-    <col min="9" max="9" width="13.3333333333333" style="92" customWidth="1"/>
-    <col min="10" max="10" width="8.88888888888889" style="92"/>
-    <col min="13" max="13" width="13.2222222222222" style="92" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="33"/>
+    <col min="2" max="2" width="5.625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20" style="35" customWidth="1"/>
+    <col min="6" max="6" width="50" style="36" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="34"/>
+    <col min="13" max="13" width="13.25" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="87" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="88" customFormat="1" ht="46.95" customHeight="1" spans="1:17">
-      <c r="A2" s="101">
+    <row r="2" spans="1:17" s="30" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="102">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
-      <c r="C2" s="103">
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="103">
+      <c r="I2" s="45">
         <v>4</v>
       </c>
-      <c r="J2" s="103">
+      <c r="J2" s="45">
         <v>100</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="103">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="45">
         <v>4</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-    </row>
-    <row r="3" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A3" s="101">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+    </row>
+    <row r="3" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="45">
         <v>3</v>
       </c>
-      <c r="J3" s="103">
+      <c r="J3" s="45">
         <v>98</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="103">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="45">
         <v>3</v>
       </c>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-    </row>
-    <row r="4" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A4" s="101">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="102">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="45">
         <v>3</v>
       </c>
-      <c r="J4" s="103">
+      <c r="J4" s="45">
         <v>97</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="103">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="45">
         <v>3</v>
       </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-    </row>
-    <row r="5" s="89" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+    </row>
+    <row r="5" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51">
         <v>10</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-    </row>
-    <row r="6" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A6" s="101">
+      <c r="J5" s="51"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+    </row>
+    <row r="6" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
         <v>1</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="103">
+      <c r="C6" s="45">
         <v>2</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="103" t="s">
+      <c r="H6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="45">
         <v>4</v>
       </c>
-      <c r="J6" s="103">
+      <c r="J6" s="45">
         <v>95</v>
       </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="103">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="45">
         <v>4</v>
       </c>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-    </row>
-    <row r="7" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A7" s="101">
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+    </row>
+    <row r="7" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
         <v>2</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="45">
         <v>2</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="103" t="s">
+      <c r="H7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="45">
         <v>3</v>
       </c>
-      <c r="J7" s="103">
+      <c r="J7" s="45">
         <v>90</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="103">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="45">
         <v>3</v>
       </c>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-    </row>
-    <row r="8" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A8" s="101">
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+    </row>
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
         <v>3</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="44">
         <v>2</v>
       </c>
-      <c r="C8" s="103">
+      <c r="C8" s="45">
         <v>2</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="45">
         <v>3</v>
       </c>
-      <c r="J8" s="103">
+      <c r="J8" s="45">
         <v>89</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="103">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="45">
         <v>3</v>
       </c>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-    </row>
-    <row r="9" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A9" s="101">
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
         <v>4</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="44">
         <v>2</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="45">
         <v>3</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="45">
         <v>85</v>
       </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="103">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="45">
         <v>3</v>
       </c>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-    </row>
-    <row r="10" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A10" s="101">
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43">
         <v>5</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="103">
+      <c r="C10" s="45">
         <v>2</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="45">
         <v>3</v>
       </c>
-      <c r="J10" s="103">
+      <c r="J10" s="45">
         <v>85</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="103">
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="45">
         <v>3</v>
       </c>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-    </row>
-    <row r="11" s="89" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109">
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51">
         <v>16</v>
       </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-    </row>
-    <row r="12" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A12" s="101">
+      <c r="J11" s="51"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
         <v>1</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="44">
         <v>3</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="45">
         <v>3</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="103" t="s">
+      <c r="H12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="45">
         <v>2</v>
       </c>
-      <c r="J12" s="103">
+      <c r="J12" s="45">
         <v>83</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="103">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="45">
         <v>2</v>
       </c>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-    </row>
-    <row r="13" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A13" s="101">
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
         <v>2</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="44">
         <v>3</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="45">
         <v>3</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="H13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="45">
         <v>3</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="45">
         <v>80</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="103">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="45">
         <v>3</v>
       </c>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-    </row>
-    <row r="14" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A14" s="101">
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
         <v>3</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="44">
         <v>3</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C14" s="45">
         <v>3</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="105" t="s">
+      <c r="F14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="45">
         <v>3</v>
       </c>
-      <c r="J14" s="103">
+      <c r="J14" s="45">
         <v>79</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="103">
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="45">
         <v>3</v>
       </c>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-    </row>
-    <row r="15" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A15" s="101">
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+    </row>
+    <row r="15" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
         <v>4</v>
       </c>
-      <c r="B15" s="102">
+      <c r="B15" s="44">
         <v>3</v>
       </c>
-      <c r="C15" s="103">
+      <c r="C15" s="45">
         <v>3</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="45">
         <v>5</v>
       </c>
-      <c r="J15" s="103">
+      <c r="J15" s="45">
         <v>77</v>
       </c>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="103">
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="45">
         <v>5</v>
       </c>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-    </row>
-    <row r="16" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A16" s="101">
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43">
         <v>5</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="44">
         <v>3</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="45">
         <v>3</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="106" t="s">
+      <c r="G16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="45">
         <v>4</v>
       </c>
-      <c r="J16" s="103">
+      <c r="J16" s="45">
         <v>75</v>
       </c>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="103">
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="45">
         <v>4</v>
       </c>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-    </row>
-    <row r="17" s="89" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109">
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51">
         <v>17</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-    </row>
-    <row r="18" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A18" s="101">
+      <c r="J17" s="51"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43">
         <v>1</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="44">
         <v>4</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="45">
         <v>4</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="103" t="s">
+      <c r="H18" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="103">
+      <c r="I18" s="45">
         <v>4</v>
       </c>
-      <c r="J18" s="103">
+      <c r="J18" s="45">
         <v>70</v>
       </c>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="103">
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="45">
         <v>4</v>
       </c>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-    </row>
-    <row r="19" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A19" s="101">
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43">
         <v>2</v>
       </c>
-      <c r="B19" s="102">
+      <c r="B19" s="44">
         <v>4</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="45">
         <v>4</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="105" t="s">
+      <c r="F19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="106" t="s">
+      <c r="G19" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="103" t="s">
+      <c r="H19" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="103">
+      <c r="I19" s="45">
         <v>2</v>
       </c>
-      <c r="J19" s="103">
+      <c r="J19" s="45">
         <v>67</v>
       </c>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="103">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="45">
         <v>2</v>
       </c>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-    </row>
-    <row r="20" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A20" s="101">
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43">
         <v>3</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="44">
         <v>4</v>
       </c>
-      <c r="C20" s="103">
+      <c r="C20" s="45">
         <v>4</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="103">
+      <c r="I20" s="45">
         <v>5</v>
       </c>
-      <c r="J20" s="103">
+      <c r="J20" s="45">
         <v>65</v>
       </c>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="103">
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="45">
         <v>5</v>
       </c>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-    </row>
-    <row r="21" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A21" s="101">
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43">
         <v>4</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="44">
         <v>4</v>
       </c>
-      <c r="C21" s="103">
+      <c r="C21" s="45">
         <v>4</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="106" t="s">
+      <c r="G21" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="103" t="s">
+      <c r="H21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="45">
         <v>3</v>
       </c>
-      <c r="J21" s="103">
+      <c r="J21" s="45">
         <v>65</v>
       </c>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="103">
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="45">
         <v>3</v>
       </c>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-    </row>
-    <row r="22" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A22" s="101">
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43">
         <v>5</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="44">
         <v>4</v>
       </c>
-      <c r="C22" s="103">
+      <c r="C22" s="45">
         <v>4</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="106" t="s">
+      <c r="G22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="103" t="s">
+      <c r="H22" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="45">
         <v>4</v>
       </c>
-      <c r="J22" s="103">
+      <c r="J22" s="45">
         <v>63</v>
       </c>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="103">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="45">
         <v>4</v>
       </c>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-    </row>
-    <row r="23" s="89" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109">
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51">
         <v>18</v>
       </c>
-      <c r="J23" s="109"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-    </row>
-    <row r="24" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A24" s="101">
+      <c r="J23" s="51"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+    </row>
+    <row r="24" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="44">
         <v>5</v>
       </c>
-      <c r="C24" s="103">
+      <c r="C24" s="45">
         <v>5</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="45">
         <v>3</v>
       </c>
-      <c r="J24" s="103">
+      <c r="J24" s="45">
         <v>75</v>
       </c>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-    </row>
-    <row r="25" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A25" s="101">
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43">
         <v>2</v>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="44">
         <v>5</v>
       </c>
-      <c r="C25" s="103">
+      <c r="C25" s="45">
         <v>5</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="45">
         <v>4</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="45">
         <v>76</v>
       </c>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-    </row>
-    <row r="26" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A26" s="101">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43">
         <v>3</v>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="44">
         <v>5</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="45">
         <v>5</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="F26" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="106" t="s">
+      <c r="G26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="45">
         <v>3</v>
       </c>
-      <c r="J26" s="103">
+      <c r="J26" s="45">
         <v>70</v>
       </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-    </row>
-    <row r="27" s="88" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A27" s="101">
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43">
         <v>4</v>
       </c>
-      <c r="B27" s="102">
+      <c r="B27" s="44">
         <v>5</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C27" s="45">
         <v>5</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="45">
         <v>4</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="45">
         <v>69</v>
       </c>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-    </row>
-    <row r="28" s="88" customFormat="1" ht="66" customHeight="1" spans="1:17">
-      <c r="A28" s="101">
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" s="30" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="43">
         <v>5</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="44">
         <v>5</v>
       </c>
-      <c r="C28" s="103">
+      <c r="C28" s="45">
         <v>5</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="G28" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="45">
         <v>5</v>
       </c>
-      <c r="J28" s="103">
+      <c r="J28" s="45">
         <v>77</v>
       </c>
-      <c r="K28" s="106" t="s">
+      <c r="K28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="106"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-    </row>
-    <row r="29" s="90" customFormat="1" ht="40.2" customHeight="1" spans="1:17">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115">
+      <c r="L28" s="48"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" s="32" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57">
         <v>19</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="54.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="54.375" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="35.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="22.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="12.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" ht="14.55" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="75"/>
-    </row>
-    <row r="4" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="80" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="76"/>
-    </row>
-    <row r="6" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="80" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="26" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="77"/>
     </row>
-    <row r="11" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="75"/>
-    </row>
-    <row r="12" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="77"/>
     </row>
   </sheetData>
@@ -4140,320 +3547,322 @@
     <mergeCell ref="E11:I12"/>
     <mergeCell ref="E3:I8"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="37.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" ht="14.55" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="75"/>
-    </row>
-    <row r="4" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A4" s="59"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A5" s="59"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="24" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="85"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="77"/>
     </row>
-    <row r="6" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A6" s="59"/>
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="75"/>
-    </row>
-    <row r="7" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A7" s="59"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="26" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" ht="128" customHeight="1" spans="1:9">
-      <c r="A8" s="59"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="77"/>
     </row>
-    <row r="9" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A9" s="59"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="76"/>
-    </row>
-    <row r="10" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A10" s="59"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="22" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="76"/>
-    </row>
-    <row r="11" ht="105" customHeight="1" spans="1:9">
-      <c r="A11" s="59"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="26" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
+    </row>
+    <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="76"/>
-    </row>
-    <row r="12" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A12" s="59"/>
-      <c r="B12" s="53" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
+      <c r="B12" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="75"/>
-    </row>
-    <row r="13" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A13" s="59"/>
-      <c r="B13" s="67"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="68"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="78"/>
-    </row>
-    <row r="14" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A14" s="59"/>
-      <c r="B14" s="67"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="78"/>
-    </row>
-    <row r="15" ht="107" customHeight="1" spans="1:9">
-      <c r="A15" s="59"/>
-      <c r="B15" s="39"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:9" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="68"/>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="76"/>
-    </row>
-    <row r="16" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A16" s="59"/>
-      <c r="B16" s="53" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="85"/>
+      <c r="B16" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="75"/>
-    </row>
-    <row r="17" ht="44" customHeight="1" spans="1:9">
-      <c r="A17" s="59"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="27" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" ht="159" customHeight="1" spans="1:9">
-      <c r="A18" s="59"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="27" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="85"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="79"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="E12:I15"/>
+    <mergeCell ref="E16:I18"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A18"/>
@@ -4470,321 +3879,319 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I8"/>
-    <mergeCell ref="E9:I11"/>
-    <mergeCell ref="E12:I15"/>
-    <mergeCell ref="E16:I18"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="52"/>
-    </row>
-    <row r="2" ht="14.55" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="86"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="87"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="54"/>
-    </row>
-    <row r="6" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="25" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="86"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="49" t="s">
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="22" t="s">
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="88"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="13" t="s">
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="87"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="87"/>
+    </row>
+    <row r="18" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="94"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="54"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E10:I13"/>
+    <mergeCell ref="E14:I18"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A18"/>
@@ -4801,291 +4208,288 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I9"/>
-    <mergeCell ref="E10:I13"/>
-    <mergeCell ref="E14:I18"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="34.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="34.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" ht="14.55" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A4" s="35"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="36" t="s">
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="107"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A5" s="35"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="36" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="107"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A6" s="35"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="107"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A7" s="35"/>
-      <c r="B7" s="25" t="s">
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="107"/>
+      <c r="B7" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A8" s="35"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="107"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="107"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A10" s="35"/>
-      <c r="B10" s="25" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="107"/>
+      <c r="B10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A11" s="35"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="107"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A12" s="35"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="107"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A13" s="35"/>
-      <c r="B13" s="25" t="s">
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="107"/>
+      <c r="B13" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A14" s="35"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="107"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A15" s="35"/>
-      <c r="B15" s="22" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="107"/>
+      <c r="B15" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" ht="49.95" customHeight="1" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24" t="s">
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="108"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="39"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5106,371 +4510,374 @@
     <mergeCell ref="E13:I14"/>
     <mergeCell ref="E15:I16"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="33.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="49.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="29"/>
-    </row>
-    <row r="2" ht="14.55" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:9">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" ht="45" customHeight="1" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" ht="45" customHeight="1" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" ht="45" customHeight="1" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" ht="45" customHeight="1" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" ht="45" customHeight="1" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="15" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" ht="45" customHeight="1" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" ht="45" customHeight="1" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" ht="45" customHeight="1" spans="1:9">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="26" t="s">
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" ht="45" customHeight="1" spans="1:9">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13" t="s">
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="B13" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" ht="45" customHeight="1" spans="1:9">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="27" t="s">
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" ht="45" customHeight="1" spans="1:9">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="26" t="s">
+      <c r="E14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" ht="45" customHeight="1" spans="1:9">
-      <c r="A16" s="7"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:9">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" ht="45" customHeight="1" spans="1:9">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="116"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" ht="45" customHeight="1" spans="1:9">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="26" t="s">
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:9">
-      <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="27" t="s">
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" ht="45" customHeight="1" spans="1:9">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="27" t="s">
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:9">
-      <c r="A22" s="28"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24" t="s">
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="94"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="32"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E17:I22"/>
+    <mergeCell ref="E3:I6"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="E10:I12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A22"/>
@@ -5487,13 +4894,9 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="E13:I16"/>
-    <mergeCell ref="E17:I22"/>
-    <mergeCell ref="E3:I6"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="E10:I12"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/scrum/第五次作业.xlsx
+++ b/Project/scrum/第五次作业.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019.9-2019.12\软件工程\hope-of-the-whole-village\Project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6D1322-D8D2-4EA6-A209-F7FDA406D91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629186-284D-426B-A058-DA955165879F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="237">
   <si>
     <t>引用编号</t>
   </si>
@@ -926,15 +926,19 @@
     <t>冲刺号</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>SPRINT4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="180" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1528,7 +1532,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="7" fillId="12" borderId="37" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="7" fillId="12" borderId="37" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="37" applyNumberFormat="0">
@@ -1536,14 +1540,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="6" fillId="7" borderId="37">
+    <xf numFmtId="177" fontId="6" fillId="7" borderId="37">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1796,6 +1800,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,14 +1830,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1832,33 +1857,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1871,6 +1875,33 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,33 +1915,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3323,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
@@ -3613,10 +3617,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="89" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="67" t="s">
@@ -3634,9 +3638,9 @@
       <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="90"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="24" t="s">
         <v>104</v>
       </c>
@@ -3647,8 +3651,8 @@
       <c r="I4" s="80"/>
     </row>
     <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
-      <c r="B5" s="88"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="12" t="s">
         <v>105</v>
       </c>
@@ -3660,8 +3664,8 @@
       <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -3677,8 +3681,8 @@
       <c r="I6" s="74"/>
     </row>
     <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="71" t="s">
         <v>109</v>
       </c>
@@ -3692,8 +3696,8 @@
       <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="70"/>
       <c r="D8" s="12" t="s">
         <v>111</v>
@@ -3705,8 +3709,8 @@
       <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="90" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="68" t="s">
@@ -3724,8 +3728,8 @@
       <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="68"/>
       <c r="D10" s="10" t="s">
         <v>116</v>
@@ -3737,8 +3741,8 @@
       <c r="I10" s="80"/>
     </row>
     <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="14" t="s">
         <v>117</v>
       </c>
@@ -3752,8 +3756,8 @@
       <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="67" t="s">
@@ -3771,8 +3775,8 @@
       <c r="I12" s="74"/>
     </row>
     <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="68"/>
       <c r="D13" s="25" t="s">
         <v>123</v>
@@ -3784,8 +3788,8 @@
       <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="68" t="s">
         <v>124</v>
       </c>
@@ -3799,8 +3803,8 @@
       <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:9" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="68"/>
       <c r="D15" s="15" t="s">
         <v>126</v>
@@ -3812,8 +3816,8 @@
       <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89" t="s">
         <v>127</v>
       </c>
       <c r="C16" s="71" t="s">
@@ -3831,8 +3835,8 @@
       <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="68"/>
       <c r="D17" s="15" t="s">
         <v>131</v>
@@ -3844,33 +3848,33 @@
       <c r="I17" s="80"/>
     </row>
     <row r="18" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E9:I11"/>
-    <mergeCell ref="E12:I15"/>
-    <mergeCell ref="E16:I18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="E12:I15"/>
+    <mergeCell ref="E16:I18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C10"/>
@@ -3948,168 +3952,168 @@
       <c r="A3" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="102" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="86"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="89"/>
     </row>
     <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="87"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="90"/>
     </row>
     <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="88"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="102" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="86"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="89"/>
     </row>
     <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="87"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="87"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="88"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="94" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="95" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
@@ -4122,26 +4126,26 @@
       <c r="D14" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="87"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
       <c r="B15" s="68"/>
-      <c r="C15" s="98"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="87"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
@@ -4150,11 +4154,11 @@
         <v>161</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="87"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="90"/>
     </row>
     <row r="17" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
@@ -4167,14 +4171,14 @@
       <c r="D17" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="87"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="90"/>
     </row>
     <row r="18" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="70"/>
       <c r="C18" s="11" t="s">
         <v>165</v>
@@ -4182,14 +4186,16 @@
       <c r="D18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="88"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E3:I5"/>
+    <mergeCell ref="E6:I9"/>
     <mergeCell ref="E10:I13"/>
     <mergeCell ref="E14:I18"/>
     <mergeCell ref="C1:D1"/>
@@ -4206,8 +4212,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E3:I5"/>
-    <mergeCell ref="E6:I9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4218,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4276,217 +4280,217 @@
     </row>
     <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="102" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
     </row>
     <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="107"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="107"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
     </row>
     <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="107"/>
-      <c r="B6" s="97"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
     </row>
     <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="107"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="102" t="s">
         <v>177</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
     </row>
     <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="107"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
     </row>
     <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="107"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="102" t="s">
         <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
     </row>
     <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="107"/>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="107"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="102" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="107"/>
-      <c r="B14" s="97"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="12" t="s">
         <v>192</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
     </row>
     <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="107"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="94" t="s">
         <v>193</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>194</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="108"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="12" t="s">
         <v>196</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
@@ -4541,13 +4545,13 @@
         <v>69</v>
       </c>
       <c r="D1" s="61"/>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -4585,54 +4589,54 @@
         <v>198</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
       <c r="B4" s="68"/>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="121" t="s">
         <v>200</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="68"/>
-      <c r="C5" s="112"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
       <c r="B6" s="68"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
@@ -4645,26 +4649,26 @@
       <c r="D7" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="98"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
@@ -4675,11 +4679,11 @@
       <c r="D9" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
@@ -4690,13 +4694,13 @@
         <v>212</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="109" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
     </row>
     <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
@@ -4707,11 +4711,11 @@
       <c r="D11" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
     </row>
     <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
@@ -4720,11 +4724,11 @@
       <c r="D12" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
     </row>
     <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
@@ -4737,26 +4741,26 @@
       <c r="D13" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
     </row>
     <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
       <c r="B14" s="68"/>
-      <c r="C14" s="98"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
@@ -4767,11 +4771,11 @@
       <c r="D15" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
@@ -4780,11 +4784,11 @@
       <c r="D16" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
@@ -4797,26 +4801,26 @@
       <c r="D17" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
     </row>
     <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
       <c r="B18" s="68"/>
-      <c r="C18" s="98"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
@@ -4827,11 +4831,11 @@
       <c r="D19" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
@@ -4840,11 +4844,11 @@
       <c r="D20" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
@@ -4853,39 +4857,39 @@
       <c r="D21" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="122"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="E17:I22"/>
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="E7:I9"/>
     <mergeCell ref="E10:I12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C12"/>

--- a/Project/scrum/第五次作业.xlsx
+++ b/Project/scrum/第五次作业.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019.9-2019.12\软件工程\hope-of-the-whole-village\Project\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ywx\class\threeUp\software-process\hope-of-the-whole-village-master\hope-of-the-whole-village\Project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629186-284D-426B-A058-DA955165879F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9C67E-69C5-4FDE-9077-78F146969D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
   <si>
     <t>引用编号</t>
   </si>
@@ -765,9 +765,6 @@
     <t>4.作为一个书法爱好者，我希望可以调整汉字样式，以便于不同字体格式的学习。</t>
   </si>
   <si>
-    <t>4.1作为一个书法爱好者，我希望该软件能正确识别我输入的汉字。</t>
-  </si>
-  <si>
     <t>1.数据集的扩充   负责人：张梦如  预期时间：2h  剩余时间：2h 底线：2h
 2.算法设计与实现  负责人：谢卿卉 预期时间：24h 剩余时间：24h 底线：26h
 3.模型优化  负责人：郑玉莹  预期时间：5h 剩余时间：5h 底线：5h
@@ -775,12 +772,6 @@
   </si>
   <si>
     <t>4.2作为一个书法爱好者，我希望该软件可以正确识别我不太规范的字体的输入。</t>
-  </si>
-  <si>
-    <t>5.作为一个输入法用户，我希望可以根据自己偏好自定义交互页面。</t>
-  </si>
-  <si>
-    <t>5.1作为一个输入法用户，我希望给软件能兼容我偏好的交互页面</t>
   </si>
   <si>
     <t>1.前端交互界面的编写  负责人：刘莉娅 预期时间：5h 剩余时间：5h 底线：5h
@@ -928,6 +919,46 @@
   </si>
   <si>
     <t>SPRINT4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1作为一个书法爱好者，我希望该软件能识别我输入的汉字。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1作为一个书法爱好者，我希望该软件能识别我写的不是楷书的字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2作为一个书法爱好者，我希望该软件能将我写的字以我希望的字体输出</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1作为一个书法爱好者，我希望该软件能准确识别我的字</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.作为一个输入法用户，我希望可以根据自己偏好自定义交互页面。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1作为一个输入法用户，我希望该软件能兼容我偏好的交互页面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1作为一个输入法用户，我希望该软件能兼容我喜欢的类型的图片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2作为一个输入法用户，我希望该软件能兼容我喜欢的动图</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.1作为一个输入法用户，我希望该软件能自动将我的图片转换成适应大小</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.2作为一个输入法用户，我希望该软件在不支持动图的情况下，自动将动图转换成图片</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1580,7 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,6 +1762,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,6 +1843,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1809,27 +1870,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1837,18 +1898,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,12 +1906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1916,6 +1959,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1933,6 +1982,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1952,7 +2069,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2208,22 +2325,22 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="33"/>
-    <col min="2" max="2" width="5.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="33"/>
+    <col min="2" max="2" width="5.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
     <col min="5" max="5" width="20" style="35" customWidth="1"/>
     <col min="6" max="6" width="50" style="36" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="34"/>
-    <col min="13" max="13" width="13.25" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="34"/>
+    <col min="13" max="13" width="13.21875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="29" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="29" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="30" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="30" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -2317,7 +2434,7 @@
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
     </row>
-    <row r="3" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -2358,7 +2475,7 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
     </row>
-    <row r="4" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>3</v>
       </c>
@@ -2399,7 +2516,7 @@
       <c r="P4" s="48"/>
       <c r="Q4" s="48"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="31" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
@@ -2420,7 +2537,7 @@
       <c r="P5" s="54"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>1</v>
       </c>
@@ -2461,7 +2578,7 @@
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
     </row>
-    <row r="7" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>2</v>
       </c>
@@ -2502,7 +2619,7 @@
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
     </row>
-    <row r="8" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <v>3</v>
       </c>
@@ -2543,7 +2660,7 @@
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
     </row>
-    <row r="9" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>4</v>
       </c>
@@ -2584,7 +2701,7 @@
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
     </row>
-    <row r="10" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <v>5</v>
       </c>
@@ -2625,7 +2742,7 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
     </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="31" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51"/>
@@ -2646,7 +2763,7 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>1</v>
       </c>
@@ -2687,7 +2804,7 @@
       <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
     </row>
-    <row r="13" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <v>2</v>
       </c>
@@ -2728,7 +2845,7 @@
       <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
     </row>
-    <row r="14" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>3</v>
       </c>
@@ -2769,7 +2886,7 @@
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
     </row>
-    <row r="15" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <v>4</v>
       </c>
@@ -2810,7 +2927,7 @@
       <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
     </row>
-    <row r="16" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <v>5</v>
       </c>
@@ -2851,7 +2968,7 @@
       <c r="P16" s="48"/>
       <c r="Q16" s="48"/>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="31" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
@@ -2872,7 +2989,7 @@
       <c r="P17" s="54"/>
       <c r="Q17" s="54"/>
     </row>
-    <row r="18" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>1</v>
       </c>
@@ -2913,7 +3030,7 @@
       <c r="P18" s="48"/>
       <c r="Q18" s="48"/>
     </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
         <v>2</v>
       </c>
@@ -2954,7 +3071,7 @@
       <c r="P19" s="48"/>
       <c r="Q19" s="48"/>
     </row>
-    <row r="20" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
         <v>3</v>
       </c>
@@ -2995,7 +3112,7 @@
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
     </row>
-    <row r="21" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <v>4</v>
       </c>
@@ -3036,7 +3153,7 @@
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
         <v>5</v>
       </c>
@@ -3077,7 +3194,7 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:17" s="31" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="31" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="50"/>
       <c r="C23" s="51"/>
@@ -3098,7 +3215,7 @@
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
     </row>
-    <row r="24" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
         <v>1</v>
       </c>
@@ -3137,7 +3254,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
         <v>2</v>
       </c>
@@ -3176,7 +3293,7 @@
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <v>3</v>
       </c>
@@ -3215,7 +3332,7 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
     </row>
-    <row r="27" spans="1:17" s="30" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="30" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>4</v>
       </c>
@@ -3254,7 +3371,7 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
     </row>
-    <row r="28" spans="1:17" s="30" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="30" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <v>5</v>
       </c>
@@ -3295,7 +3412,7 @@
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
     </row>
-    <row r="29" spans="1:17" s="32" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="32" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
       <c r="B29" s="56"/>
       <c r="C29" s="57"/>
@@ -3331,36 +3448,36 @@
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -3385,127 +3502,127 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="71" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="71" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="75" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67" t="s">
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67" t="s">
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="71" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3514,28 +3631,28 @@
       <c r="D11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="70"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3565,33 +3682,33 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -3616,260 +3733,254 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+    <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="71" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="93"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88"/>
-      <c r="B5" s="91"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="71" t="s">
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="75" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-    </row>
-    <row r="8" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="70"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="88"/>
-      <c r="B9" s="90" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89"/>
+      <c r="B9" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="72" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="68"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-    </row>
-    <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="90"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="71" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="68"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="68" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="72" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:9" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="68"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="1:9" ht="107.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="75" t="s">
         <v>128</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
-    </row>
-    <row r="17" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="68"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+    </row>
+    <row r="17" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="92"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+    </row>
+    <row r="18" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="E9:I11"/>
     <mergeCell ref="E12:I15"/>
     <mergeCell ref="E16:I18"/>
@@ -3883,6 +3994,12 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I8"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3893,37 +4010,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -3948,221 +4065,221 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+    <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="108" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="89"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95" t="s">
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="90"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="90"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="91"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="102" t="s">
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="92"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="108" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="89"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="90"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95" t="s">
+      <c r="E7" s="100"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="91"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="90"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="91"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="94" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="92"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="104" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95" t="s">
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67" t="s">
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="71" t="s">
         <v>157</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="90"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="94"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="90"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="70"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="91"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="68" t="s">
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72" t="s">
         <v>162</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -4171,41 +4288,41 @@
       <c r="D17" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
-      <c r="B18" s="70"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="91"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I9"/>
     <mergeCell ref="E10:I13"/>
     <mergeCell ref="E14:I18"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
@@ -4220,40 +4337,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105" t="s">
+      <c r="D1" s="109"/>
+      <c r="E1" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -4278,241 +4395,291 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="102" t="s">
+    <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="108" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="111"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="96"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="12" t="s">
         <v>174</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="102" t="s">
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="111"/>
+      <c r="B7" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="108" t="s">
         <v>177</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="111"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="107"/>
-      <c r="B10" s="102" t="s">
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="108" t="s">
         <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="107"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107"/>
-      <c r="B12" s="96"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="12" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="107"/>
-      <c r="B13" s="102" t="s">
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="102" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="12" t="s">
+      <c r="D15" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107"/>
-      <c r="B15" s="94" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="90"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="111"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="91"/>
+    </row>
+    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="128"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="108"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
+      <c r="D18" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="91"/>
+    </row>
+    <row r="19" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="112"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="92"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:I15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E16:I19"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A3:A19"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="E7:I9"/>
     <mergeCell ref="E10:I12"/>
-    <mergeCell ref="E13:I14"/>
-    <mergeCell ref="E15:I16"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4523,37 +4690,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.25" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="118" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -4578,312 +4745,306 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="109" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="121" t="s">
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="121"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="8" t="s">
+      <c r="C7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67" t="s">
+      <c r="E7" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="D9" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-    </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="8" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-    </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="113" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="109" t="s">
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="71" t="s">
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="C13" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-    </row>
-    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="117"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="68" t="s">
+      <c r="E13" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="D15" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
-    </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="15" t="s">
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="71" t="s">
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="C17" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67" t="s">
+      <c r="E17" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="D19" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="111"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="10" t="s">
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-    </row>
-    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="71" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="E21" s="116"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="107"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-    </row>
-    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-    </row>
-    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
     <mergeCell ref="E17:I22"/>
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="E7:I9"/>
@@ -4898,6 +5059,12 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="E13:I16"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project/scrum/第五次作业.xlsx
+++ b/Project/scrum/第五次作业.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ywx\class\threeUp\software-process\hope-of-the-whole-village-master\hope-of-the-whole-village\Project\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software-process\hope-of-the-whole-village\Project\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9C67E-69C5-4FDE-9077-78F146969D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E156F7-78C5-4DD0-8199-D26B89E0EFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,9 +589,6 @@
     <t>3.作为一个输入法用户，我希望我的输入法可以选择一些表情符号。</t>
   </si>
   <si>
-    <t>3.2作为一个输入法用户，我希望我的输入法有选择表情符号的功能。</t>
-  </si>
-  <si>
     <t>3.1.1. 作为一个输入法用户，我希望我的输入法有功能选项列表，以便我使用其他功能。</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
   </si>
   <si>
     <t>3.1.2. 作为一个输入法用户，我希望我的输入法有选择表情符号的功能选项。</t>
-  </si>
-  <si>
-    <t>3.3作为一个输入法用户，我希望我的输入法在我输入心情等内容的时候可以联想相关的标情符号。</t>
   </si>
   <si>
     <t>3.2.1 作为一个输入法用户，我希望我的输入法可以识别我输入的与心情等表情有关的内容。</t>
@@ -799,15 +793,6 @@
     <t>1.2作为产品运营人员，我希望可以过滤用户评价。</t>
   </si>
   <si>
-    <t>1.1.1 作为产品运营人员，我希望可以过滤掉默认评价。</t>
-  </si>
-  <si>
-    <t>1.1.2作为产品运营人员，我希望可以过滤掉类似好，很棒之类的评价。</t>
-  </si>
-  <si>
-    <t>1.1.3作为产品运营人员，我希望可以过滤掉10字以下的评价。</t>
-  </si>
-  <si>
     <t>2. 作为产品运营人员，我想要获得产品的下载次数，因为使用次数可以体现产品的受欢迎度</t>
   </si>
   <si>
@@ -959,6 +944,26 @@
   </si>
   <si>
     <t>5.2.2作为一个输入法用户，我希望该软件在不支持动图的情况下，自动将动图转换成图片</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.1 作为产品运营人员，我希望可以过滤掉默认评价。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2作为产品运营人员，我希望可以过滤掉类似好，很棒之类的评价。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3作为产品运营人员，我希望可以过滤掉10字以下的评价。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1作为一个输入法用户，我希望我的输入法有选择表情符号的功能。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2作为一个输入法用户，我希望我的输入法在我输入心情等内容的时候可以联想相关的标情符号。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1774,6 +1779,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1843,6 +1851,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1861,51 +1881,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1915,6 +1923,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,12 +1970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1982,74 +1987,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2069,7 +2006,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2321,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3444,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
@@ -3460,22 +3397,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3503,126 +3440,126 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="76" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3631,28 +3568,28 @@
       <c r="D11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3678,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3696,17 +3633,17 @@
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3734,253 +3671,259 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="72" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="97"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="95" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="76" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="74"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="73" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="72"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="72" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="72" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="73" t="s">
         <v>124</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
     </row>
     <row r="15" spans="1:9" ht="107.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="72"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="76" t="s">
         <v>128</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="72"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="15" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="96"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="E9:I11"/>
     <mergeCell ref="E12:I15"/>
     <mergeCell ref="E16:I18"/>
@@ -3994,12 +3937,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I8"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4010,15 +3947,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4028,17 +3965,17 @@
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4066,257 +4003,251 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="100" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="90"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="91"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="92"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="97"/>
     </row>
     <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="100" t="s">
         <v>141</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="90"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="95"/>
     </row>
     <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="91"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="96"/>
     </row>
     <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="91"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="92"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105" t="s">
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="12" t="s">
+      <c r="C14" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71" t="s">
+      <c r="D14" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="E14" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="96"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="96"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="91"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="91"/>
-    </row>
-    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72" t="s">
+      <c r="D17" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="92"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E3:I5"/>
     <mergeCell ref="E6:I9"/>
     <mergeCell ref="E10:I13"/>
@@ -4329,6 +4260,12 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4339,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -4348,7 +4285,8 @@
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="39.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4358,17 +4296,17 @@
       <c r="B1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4396,278 +4334,271 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="112"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="112"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+    </row>
+    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="112"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="112"/>
+      <c r="B7" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112"/>
+      <c r="B10" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="112"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+    </row>
+    <row r="12" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="112"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="112"/>
+      <c r="B13" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="96"/>
+    </row>
+    <row r="15" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="112"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="97"/>
+    </row>
+    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="112"/>
+      <c r="B16" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-    </row>
-    <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-    </row>
-    <row r="6" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="108" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-    </row>
-    <row r="12" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-    </row>
-    <row r="13" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="71" t="s">
+      <c r="C16" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D16" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E16" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="63" t="s">
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="112"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="12" t="s">
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="113"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="16" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
-      <c r="B16" s="71" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="96"/>
+    </row>
+    <row r="19" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="114"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="91"/>
-    </row>
-    <row r="18" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="91"/>
-    </row>
-    <row r="19" spans="1:9" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="92"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="97"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E13:I15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E16:I19"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A3:A19"/>
@@ -4680,6 +4611,13 @@
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="E7:I9"/>
     <mergeCell ref="E10:I12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E13:I15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E16:I19"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4690,8 +4628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4708,17 +4646,17 @@
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4746,305 +4684,311 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="117"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="113" t="s">
+      <c r="D4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="125" t="s">
+      <c r="C7" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="8" t="s">
+      <c r="E7" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="118"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="9" t="s">
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="117"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="D9" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="C10" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-    </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-    </row>
-    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="12" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71" t="s">
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="113" t="s">
+      <c r="C13" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="75" t="s">
+      <c r="D13" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E13" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="118"/>
-    </row>
-    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="12" t="s">
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72" t="s">
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="D15" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-    </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="15" t="s">
+      <c r="C17" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="75" t="s">
+      <c r="D17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E17" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="118"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="12" t="s">
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="117"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71" t="s">
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="D19" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="10" t="s">
+      <c r="E21" s="118"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="99"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-    </row>
-    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="118"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="118"/>
-    </row>
-    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-    </row>
-    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="E17:I22"/>
     <mergeCell ref="E3:I6"/>
     <mergeCell ref="E7:I9"/>
@@ -5059,12 +5003,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="E13:I16"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
